--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igmut\source\repos\Hackaton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD648AF-E4FD-4083-B2AA-A3B20926139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67BA444-E30A-4364-BE7E-3EB45E592549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Professors" sheetId="1" r:id="rId1"/>
-    <sheet name="Procedures" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="36">
   <si>
     <t>професор</t>
   </si>
@@ -120,12 +119,6 @@
     <t>Тодор Тодоров</t>
   </si>
   <si>
-    <t>доктор</t>
-  </si>
-  <si>
-    <t>ДН</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -151,33 +144,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Procedure</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>M7</t>
   </si>
 </sst>
 </file>
@@ -220,7 +186,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -504,45 +470,45 @@
       <selection activeCell="D18" sqref="D18:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -572,7 +538,7 @@
         <v>45860</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -602,7 +568,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -632,7 +598,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -662,7 +628,7 @@
         <v>45860</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -692,7 +658,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -722,7 +688,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -752,7 +718,7 @@
         <v>45860</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -782,7 +748,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -812,7 +778,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -842,7 +808,7 @@
         <v>45860</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -872,7 +838,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -902,7 +868,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -932,7 +898,7 @@
         <v>45860</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -962,7 +928,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -992,7 +958,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1022,7 +988,7 @@
         <v>45860</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1052,7 +1018,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1082,7 +1048,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1110,763 +1076,6 @@
       <c r="I20" s="2">
         <f t="shared" si="0"/>
         <v>45834</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45689</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45697</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45705</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4">
-        <f>MOD(D3+6, 19) + 1</f>
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:J4" si="0">MOD(E3+6, 19) + 1</f>
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45713</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>MOD(D4+6, 19) + 1</f>
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5" si="1">MOD(E4+6, 19) + 1</f>
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5" si="2">MOD(F4+6, 19) + 1</f>
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ref="G5" si="3">MOD(G4+6, 19) + 1</f>
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5" si="4">MOD(H4+6, 19) + 1</f>
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ref="I5" si="5">MOD(I4+6, 19) + 1</f>
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5" si="6">MOD(J4+6, 19) + 1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45721</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45729</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>7</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45737</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8">
-        <f>MOD(D7+6, 19) + 1</f>
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E9" si="7">MOD(E7+6, 19) + 1</f>
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ref="F8:F9" si="8">MOD(F7+6, 19) + 1</f>
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ref="G8:G9" si="9">MOD(G7+6, 19) + 1</f>
-        <v>16</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ref="H8:H9" si="10">MOD(H7+6, 19) + 1</f>
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I9" si="11">MOD(I7+6, 19) + 1</f>
-        <v>18</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:J9" si="12">MOD(J7+6, 19) + 1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45745</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f>MOD(D8+6, 19) + 1</f>
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45753</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>45761</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
-      <c r="J11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45769</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <f>MOD(D11+6, 19) + 1</f>
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ref="E12:E13" si="13">MOD(E11+6, 19) + 1</f>
-        <v>14</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ref="F12:F13" si="14">MOD(F11+6, 19) + 1</f>
-        <v>15</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ref="G12:G13" si="15">MOD(G11+6, 19) + 1</f>
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <f t="shared" ref="H12:H13" si="16">MOD(H11+6, 19) + 1</f>
-        <v>17</v>
-      </c>
-      <c r="I12">
-        <f t="shared" ref="I12:I13" si="17">MOD(I11+6, 19) + 1</f>
-        <v>18</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J13" si="18">MOD(J11+6, 19) + 1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>45777</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f>MOD(D12+6, 19) + 1</f>
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45785</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>45793</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>7</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
-        <v>9</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
-        <v>11</v>
-      </c>
-      <c r="J15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45801</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16">
-        <f>MOD(D15+6, 19) + 1</f>
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:E17" si="19">MOD(E15+6, 19) + 1</f>
-        <v>14</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ref="F16:F17" si="20">MOD(F15+6, 19) + 1</f>
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G17" si="21">MOD(G15+6, 19) + 1</f>
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H17" si="22">MOD(H15+6, 19) + 1</f>
-        <v>17</v>
-      </c>
-      <c r="I16">
-        <f t="shared" ref="I16:I17" si="23">MOD(I15+6, 19) + 1</f>
-        <v>18</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ref="J16:J17" si="24">MOD(J15+6, 19) + 1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>45809</v>
-      </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f>MOD(D16+6, 19) + 1</f>
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="23"/>
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="24"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>45817</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>45825</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <v>9</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
-        <v>11</v>
-      </c>
-      <c r="J19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45833</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <f>MOD(D19+6, 19) + 1</f>
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ref="E20:E21" si="25">MOD(E19+6, 19) + 1</f>
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ref="F20:F21" si="26">MOD(F19+6, 19) + 1</f>
-        <v>15</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ref="G20:G21" si="27">MOD(G19+6, 19) + 1</f>
-        <v>16</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ref="H20:H21" si="28">MOD(H19+6, 19) + 1</f>
-        <v>17</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ref="I20:I21" si="29">MOD(I19+6, 19) + 1</f>
-        <v>18</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ref="J20:J21" si="30">MOD(J19+6, 19) + 1</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45841</v>
-      </c>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f>MOD(D20+6, 19) + 1</f>
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="27"/>
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="28"/>
-        <v>5</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="29"/>
-        <v>6</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="30"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>45849</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
